--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5571,4 +5572,1770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7338,4 +7339,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8801,4 +8802,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8810,7 +8811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8821,17 +8822,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8841,14 +8862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.390000000000001</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8857,14 +8900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.59</v>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8873,14 +8938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.08</v>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8889,13 +8976,2429 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>57.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>72</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11297,7 +11298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11308,17 +11309,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11328,14 +11349,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.58</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11344,14 +11387,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.390000000000001</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11360,14 +11425,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.59</v>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -11376,14 +11463,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.08</v>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -11392,13 +11501,1231 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8779</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6611</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>55.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>72</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12608,7 +12609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12619,17 +12620,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12639,14 +12660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.77</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12655,14 +12698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.58</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12671,14 +12736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.390000000000001</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -12687,14 +12774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.59</v>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -12703,14 +12812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.08</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -12719,13 +12850,525 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>11.77</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>17.58</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>9.390000000000001</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>5.59</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>18.08</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>72</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.52</v>
       </c>
     </row>
@@ -600,6 +617,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2535,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5021,7 +6078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6483,7 +7540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8249,7 +9306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10585,7 +11642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
+++ b/数据整理/stocks/A股/深证主板/000538-云南白药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>11.77</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>17.58</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>9.390000000000001</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>5.59</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>18.08</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2822 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>72</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0947</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8806</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3426,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1656,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2282,7 +6207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3592,7 +7517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6078,7 +10003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7540,7 +11465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9306,7 +13231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11640,2796 +15565,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161131</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>277.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8347</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1361</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005689</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0947</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002269</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华大数据灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8806</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009414</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银大健康股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7104</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007718</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5699</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008978</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华长丰混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4938</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2550</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2366</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1777</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000968</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1475</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006243</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银双息回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1212</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008107</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商医药医疗行业股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1136</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1118</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003373</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1114</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002261</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银宝利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1024</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002434</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银宏利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>22.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1022</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002614</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银颐利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>26.57</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1021</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003966</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中银润利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>22.49</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1020</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>165519</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>信诚中证800医药指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002085</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长盛互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.73</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001892</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011242</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76.76</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>580005</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>76.76</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006199</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长盛同锦研究精选混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0699</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0693</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0684</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003967</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中银润利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>22.49</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>27.86</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0669</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002615</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银颐利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>26.57</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002581</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>41.14</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001162</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>前海开源优势蓝筹股票A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0628</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>673020</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>西部利得成长精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>73.84</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0567</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009186</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>天弘聚新三个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>512120</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华安中证细分医药ETF</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>98.10</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>519130</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>海富通新内需灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>10.85</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>003374</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>515950</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>富国中证医药50ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>99.14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0419</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002435</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中银宏利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>22.99</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>002582</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>41.14</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>000199</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>国泰量化策略收益混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>72.15</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>002262</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中银宝利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>23.19</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002172</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>海富通新内需灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>360010</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>光大保德信均衡精选混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>80.90</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001226</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中邮稳健添利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>007056</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>银华积极精选混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>585001</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东吴中证新兴</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>002026</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>010159</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>中银医疗保健灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>82.68</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>001068</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>华融新锐灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>70.59</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>001638</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>前海开源优势蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>82.60</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>010321</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>中银大健康股票C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>002982</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>004680</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>前海开源裕瑞混合A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>006190</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>前海开源裕瑞混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>009187</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>天弘聚新三个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>